--- a/records.xlsx
+++ b/records.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Number</t>
   </si>
@@ -31,10 +31,52 @@
     <t>VQA</t>
   </si>
   <si>
-    <t>提供的模型 indomain base</t>
+    <t>计算量对比</t>
+  </si>
+  <si>
+    <t>batchsize</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>UNITER base  indomain base</t>
+  </si>
+  <si>
+    <t>Indomain</t>
+  </si>
+  <si>
+    <t>538w samples</t>
+  </si>
+  <si>
+    <t>4096(</t>
+  </si>
+  <si>
+    <t>16.9w</t>
   </si>
   <si>
     <t>自己训的 indomain base</t>
+  </si>
+  <si>
+    <t>➕Outdomain</t>
+  </si>
+  <si>
+    <t>763w samples</t>
+  </si>
+  <si>
+    <t>239w</t>
+  </si>
+  <si>
+    <t>?为什么这么大差异</t>
+  </si>
+  <si>
+    <t>UNITER large</t>
+  </si>
+  <si>
+    <t>调3，参数</t>
+  </si>
+  <si>
+    <t>调3 参数</t>
   </si>
 </sst>
 </file>
@@ -973,18 +1015,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="32.9553571428571" customWidth="1"/>
+    <col min="8" max="8" width="13.1071428571429" customWidth="1"/>
+    <col min="9" max="9" width="13.6964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,27 +1044,108 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>70.71</v>
       </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>70.41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>4096</v>
+      </c>
+      <c r="L3">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>72.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>59.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>68.5</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>Number</t>
   </si>
@@ -61,7 +61,7 @@
     <t>➕Outdomain</t>
   </si>
   <si>
-    <t>763w samples</t>
+    <t>915w samples</t>
   </si>
   <si>
     <t>239w</t>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>UNITER large</t>
+  </si>
+  <si>
+    <t>(他有929w samples)</t>
   </si>
   <si>
     <t>调3，参数</t>
@@ -1018,7 +1021,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1115,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1124,6 +1127,9 @@
       </c>
       <c r="E4">
         <v>72.16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1131,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>59.56</v>
@@ -1142,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>68.5</v>

--- a/records.xlsx
+++ b/records.xlsx
@@ -64,7 +64,7 @@
     <t>915w samples</t>
   </si>
   <si>
-    <t>239w</t>
+    <t>28.74w</t>
   </si>
   <si>
     <t>?为什么这么大差异</t>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420"/>
+    <workbookView windowWidth="28800" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ViLT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>Number</t>
   </si>
@@ -49,9 +50,6 @@
     <t>538w samples</t>
   </si>
   <si>
-    <t>4096(</t>
-  </si>
-  <si>
     <t>16.9w</t>
   </si>
   <si>
@@ -80,6 +78,15 @@
   </si>
   <si>
     <t>调3 参数</t>
+  </si>
+  <si>
+    <t>上游实验</t>
+  </si>
+  <si>
+    <t>indomain pre-train</t>
+  </si>
+  <si>
+    <t>没跑完，中间结果</t>
   </si>
 </sst>
 </file>
@@ -245,12 +252,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -550,76 +563,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -628,18 +641,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,54 +662,57 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,8 +1036,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="M1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1079,14 +1095,14 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="J2">
+        <v>4096</v>
       </c>
       <c r="L2">
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1094,28 +1110,31 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>70.41</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
       <c r="J3">
         <v>4096</v>
       </c>
+      <c r="K3">
+        <v>2234</v>
+      </c>
       <c r="L3">
         <v>32</v>
       </c>
       <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1123,13 +1142,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>72.16</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1137,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>59.56</v>
@@ -1148,10 +1167,101 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>68.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="13" max="13" width="9.22321428571429" customWidth="1"/>
+    <col min="14" max="14" width="9.14285714285714" style="1"/>
+    <col min="16" max="16" width="7.60714285714286" customWidth="1"/>
+    <col min="17" max="17" width="19.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2">
+        <v>69.57</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>Number</t>
   </si>
@@ -80,13 +80,28 @@
     <t>调3 参数</t>
   </si>
   <si>
+    <t>Blob</t>
+  </si>
+  <si>
     <t>上游实验</t>
   </si>
   <si>
     <t>indomain pre-train</t>
   </si>
   <si>
+    <t>wu2/sc</t>
+  </si>
+  <si>
     <t>没跑完，中间结果</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>wu2</t>
+  </si>
+  <si>
+    <t>val</t>
   </si>
 </sst>
 </file>
@@ -94,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,6 +124,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,6 +145,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -131,15 +168,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,14 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,9 +215,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,46 +245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,24 +266,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,61 +282,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,121 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +485,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,9 +541,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,156 +584,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,22 +1206,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="13" max="13" width="9.22321428571429" customWidth="1"/>
-    <col min="14" max="14" width="9.14285714285714" style="1"/>
-    <col min="16" max="16" width="7.60714285714286" customWidth="1"/>
-    <col min="17" max="17" width="19.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="7.60714285714286" customWidth="1"/>
+    <col min="10" max="10" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,56 +1236,82 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2">
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2">
         <v>69.57</v>
       </c>
+    </row>
+    <row r="3" spans="8:13">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="8:13">
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>Number</t>
   </si>
@@ -86,13 +86,16 @@
     <t>上游实验</t>
   </si>
   <si>
+    <t>full pre-train batch 4320</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>没跑完，中间结果</t>
+  </si>
+  <si>
     <t>indomain pre-train</t>
-  </si>
-  <si>
-    <t>wu2/sc</t>
-  </si>
-  <si>
-    <t>没跑完，中间结果</t>
   </si>
   <si>
     <t>last</t>
@@ -267,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,12 +280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,145 +581,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -736,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1206,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H3" sqref="H3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1272,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -1281,37 +1278,50 @@
         <v>69.57</v>
       </c>
     </row>
-    <row r="3" spans="8:13">
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2">
+        <v>69.62</v>
+      </c>
     </row>
     <row r="4" spans="8:13">
       <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>69.593</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Number</t>
   </si>
@@ -89,7 +89,10 @@
     <t>full pre-train batch 4320</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>挂着，等3跑完</t>
+  </si>
+  <si>
+    <t>wu</t>
   </si>
   <si>
     <t>没跑完，中间结果</t>
@@ -104,7 +107,16 @@
     <t>wu2</t>
   </si>
   <si>
+    <t>indomain base no_vit pre-train</t>
+  </si>
+  <si>
     <t>val</t>
+  </si>
+  <si>
+    <t>hw2</t>
+  </si>
+  <si>
+    <t>indomain middle no_vit pre-train</t>
   </si>
 </sst>
 </file>
@@ -285,6 +297,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,12 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,149 +596,149 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +746,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,15 +1218,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:M4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="28.7232142857143" customWidth="1"/>
+    <col min="4" max="4" width="11.7589285714286" customWidth="1"/>
     <col min="7" max="7" width="9.14285714285714" style="1"/>
     <col min="9" max="9" width="7.60714285714286" customWidth="1"/>
     <col min="10" max="10" width="19.7142857142857" customWidth="1"/>
@@ -1256,14 +1272,18 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1272,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2">
         <v>69.57</v>
@@ -1283,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -1295,17 +1315,24 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2">
         <v>69.62</v>
       </c>
     </row>
-    <row r="4" spans="8:13">
+    <row r="4" spans="1:13">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
@@ -1313,14 +1340,22 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2">
         <v>69.593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -124,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,11 +152,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,16 +174,101 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,99 +281,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +297,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -309,13 +315,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,157 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,65 +502,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,157 +535,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +755,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,7 +1230,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
@@ -1299,10 +1308,11 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
@@ -1326,11 +1336,11 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="2">
@@ -1351,10 +1361,11 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
     </row>

--- a/records.xlsx
+++ b/records.xlsx
@@ -125,9 +125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -139,30 +139,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,7 +168,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -182,48 +223,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,48 +275,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -315,19 +315,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,151 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,8 +500,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,69 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -594,153 +585,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,13 +1227,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="28.7232142857143" customWidth="1"/>
     <col min="4" max="4" width="11.7589285714286" customWidth="1"/>
@@ -1336,12 +1336,15 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
@@ -1360,13 +1363,39 @@
         <v>69.593</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Number</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>indomain middle no_vit pre-train</t>
+  </si>
+  <si>
+    <t>hw3</t>
+  </si>
+  <si>
+    <t>indomain middle no_vit pre-train 去掉最优传输loss</t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +764,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,12 +1239,13 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H5" sqref="H5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="3" max="3" width="28.7232142857143" customWidth="1"/>
+    <col min="1" max="1" width="6.33928571428571" customWidth="1"/>
+    <col min="3" max="3" width="47.2946428571429" customWidth="1"/>
     <col min="4" max="4" width="11.7589285714286" customWidth="1"/>
     <col min="7" max="7" width="9.14285714285714" style="1"/>
     <col min="9" max="9" width="7.60714285714286" customWidth="1"/>
@@ -1363,7 +1373,7 @@
         <v>69.593</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1371,31 +1381,45 @@
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <v>55.898</v>
+      </c>
     </row>
-    <row r="6" spans="8:11">
-      <c r="H6">
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>56.111</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -288,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,139 +309,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,10 +611,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,19 +626,19 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,19 +656,19 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -710,7 +716,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1236,13 +1242,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="6.33928571428571" customWidth="1"/>
     <col min="3" max="3" width="47.2946428571429" customWidth="1"/>
@@ -1422,6 +1428,17 @@
         <v>56.111</v>
       </c>
     </row>
+    <row r="7" spans="8:10">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -130,8 +130,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -145,6 +145,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -152,17 +159,109 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,15 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,99 +287,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,55 +315,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,49 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,73 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,8 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,22 +528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +544,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,22 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,148 +617,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,8 +1250,8 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1387,48 +1393,49 @@
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
         <v>55.898</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
         <v>56.111</v>
       </c>
     </row>
-    <row r="7" spans="8:10">
+    <row r="7" spans="8:13">
       <c r="H7">
         <v>6</v>
       </c>
@@ -1437,6 +1444,9 @@
       </c>
       <c r="J7" t="s">
         <v>28</v>
+      </c>
+      <c r="M7">
+        <v>56.874</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>Number</t>
   </si>
@@ -119,10 +119,16 @@
     <t>indomain middle no_vit pre-train</t>
   </si>
   <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/acfe2e64-7445-45c6-bdc8-db3c8b3d6bdb</t>
+  </si>
+  <si>
     <t>hw3</t>
   </si>
   <si>
     <t>indomain middle no_vit pre-train 去掉最优传输loss</t>
+  </si>
+  <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891</t>
   </si>
 </sst>
 </file>
@@ -144,6 +150,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -176,14 +190,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,64 +623,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -686,7 +692,7 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -695,16 +701,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,28 +722,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,23 +752,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +785,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,13 +1257,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="6.33928571428571" customWidth="1"/>
     <col min="3" max="3" width="47.2946428571429" customWidth="1"/>
@@ -1385,7 +1394,7 @@
         <v>69.593</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1409,14 +1418,17 @@
       <c r="M5" s="2">
         <v>55.898</v>
       </c>
+      <c r="N5" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
@@ -1433,6 +1445,9 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2">
         <v>56.111</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="8:13">
@@ -1446,10 +1461,25 @@
         <v>28</v>
       </c>
       <c r="M7">
-        <v>56.874</v>
+        <v>57.376</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10">
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N6" r:id="rId1" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891"/>
+    <hyperlink ref="N5" r:id="rId2" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/acfe2e64-7445-45c6-bdc8-db3c8b3d6bdb"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>Number</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>full pre-train batch 4320</t>
-  </si>
-  <si>
-    <t>挂着，等3跑完</t>
   </si>
   <si>
     <t>wu</t>
@@ -294,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +307,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,76 +614,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -701,7 +692,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,7 +701,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,27 +713,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,39 +743,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
@@ -1259,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
@@ -1319,11 +1307,9 @@
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1332,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2">
         <v>69.57</v>
@@ -1344,25 +1330,25 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
         <v>69.62</v>
       </c>
     </row>
@@ -1372,82 +1358,82 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>69.593</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>55.898</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>55.898</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>56.111</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>56.111</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="8:13">
@@ -1455,10 +1441,10 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7">
         <v>57.376</v>
@@ -1469,10 +1455,10 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>Number</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891</t>
+  </si>
+  <si>
+    <t>hw4</t>
+  </si>
+  <si>
+    <t>indomain middle no_vit pre-train 改进最优传输loss</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1254,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
@@ -1436,7 +1442,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="8:13">
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>

--- a/records.xlsx
+++ b/records.xlsx
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
@@ -1463,7 +1463,7 @@
         <v>57.376</v>
       </c>
     </row>
-    <row r="8" spans="8:10">
+    <row r="8" spans="8:13">
       <c r="H8">
         <v>7</v>
       </c>
@@ -1472,6 +1472,9 @@
       </c>
       <c r="J8" t="s">
         <v>27</v>
+      </c>
+      <c r="M8">
+        <v>51.9</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>Number</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>indomain middle no_vit pre-train 改进最优传输loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indomain middle no_vit pre-train + conv bottom </t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1257,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
@@ -1463,7 +1466,17 @@
         <v>57.376</v>
       </c>
     </row>
-    <row r="8" spans="8:13">
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
       <c r="H8">
         <v>7</v>
       </c>

--- a/records.xlsx
+++ b/records.xlsx
@@ -1254,13 +1254,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="6.33928571428571" customWidth="1"/>
     <col min="3" max="3" width="47.2946428571429" customWidth="1"/>
@@ -1490,6 +1490,20 @@
         <v>51.9</v>
       </c>
     </row>
+    <row r="9" spans="8:11">
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891"/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>Number</t>
   </si>
@@ -86,6 +86,15 @@
     <t>上游实验</t>
   </si>
   <si>
+    <t>test-dev (best)</t>
+  </si>
+  <si>
+    <t>test-dev (last)</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
     <t>full pre-train batch 4320</t>
   </si>
   <si>
@@ -135,6 +144,15 @@
   </si>
   <si>
     <t xml:space="preserve">indomain middle no_vit pre-train + conv bottom </t>
+  </si>
+  <si>
+    <t>indomain middle no_vit pre-train + conv bottom + 连续patch</t>
+  </si>
+  <si>
+    <t>indomain middle no_vit pre-train + conv bottom + 连续patch +c</t>
+  </si>
+  <si>
+    <t>debug multi_rang</t>
   </si>
 </sst>
 </file>
@@ -300,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,13 +333,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,12 +460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,152 +647,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +803,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1254,23 +1284,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="6.33928571428571" customWidth="1"/>
-    <col min="3" max="3" width="47.2946428571429" customWidth="1"/>
+    <col min="3" max="3" width="61.2678571428571" customWidth="1"/>
     <col min="4" max="4" width="11.7589285714286" customWidth="1"/>
     <col min="7" max="7" width="9.14285714285714" style="1"/>
     <col min="9" max="9" width="7.60714285714286" customWidth="1"/>
     <col min="10" max="10" width="19.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="13.5267857142857" customWidth="1"/>
+    <col min="15" max="15" width="12.1696428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1307,18 +1339,27 @@
       <c r="M1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2"/>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1327,38 +1368,47 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>69.57</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>70.69</v>
+      </c>
+      <c r="P2">
+        <v>70.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
+      <c r="J3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6">
         <v>69.62</v>
+      </c>
+      <c r="N3">
+        <v>70.36</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1367,130 +1417,137 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
         <v>69.593</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6">
         <v>4</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="J5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
         <v>55.898</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>33</v>
+      <c r="N5" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4">
+        <v>38</v>
+      </c>
+      <c r="H6" s="6">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="J6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
         <v>56.111</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>36</v>
+      <c r="N6" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M7">
         <v>57.376</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M8">
         <v>51.9</v>
       </c>
     </row>
-    <row r="9" spans="8:11">
+    <row r="9" spans="1:13">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H9">
         <v>8</v>
       </c>
@@ -1498,10 +1555,29 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>69.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>Number</t>
   </si>
@@ -140,19 +140,37 @@
     <t>hw4</t>
   </si>
   <si>
+    <t>Vilt</t>
+  </si>
+  <si>
     <t>indomain middle no_vit pre-train 改进最优传输loss</t>
   </si>
   <si>
+    <t>Vilt_convstem</t>
+  </si>
+  <si>
     <t xml:space="preserve">indomain middle no_vit pre-train + conv bottom </t>
   </si>
   <si>
+    <t>Vilt_convstem_conmask</t>
+  </si>
+  <si>
     <t>indomain middle no_vit pre-train + conv bottom + 连续patch</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>indomain middle no_vit pre-train + conv bottom + 连续patch +c</t>
   </si>
   <si>
     <t>debug multi_rang</t>
+  </si>
+  <si>
+    <t>hw5（6）</t>
+  </si>
+  <si>
+    <t>同5， 但是 bottom改小，batch改大， patch 15</t>
   </si>
 </sst>
 </file>
@@ -318,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,12 +364,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,76 +659,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -725,7 +737,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,7 +746,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,27 +758,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,16 +788,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -808,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1284,15 +1296,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="6.33928571428571" customWidth="1"/>
+    <col min="1" max="1" width="9.19642857142857" customWidth="1"/>
+    <col min="2" max="2" width="25.2946428571429" customWidth="1"/>
     <col min="3" max="3" width="61.2678571428571" customWidth="1"/>
     <col min="4" max="4" width="11.7589285714286" customWidth="1"/>
     <col min="7" max="7" width="9.14285714285714" style="1"/>
@@ -1376,11 +1389,14 @@
       <c r="N2">
         <v>70.69</v>
       </c>
+      <c r="O2">
+        <v>70.69</v>
+      </c>
       <c r="P2">
         <v>70.85</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1391,24 +1407,27 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>2</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
         <v>69.62</v>
       </c>
       <c r="N3">
         <v>70.36</v>
+      </c>
+      <c r="O3">
+        <v>70.57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1422,20 +1441,20 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>2</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
         <v>69.593</v>
       </c>
     </row>
@@ -1447,20 +1466,20 @@
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>3</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
         <v>55.898</v>
       </c>
       <c r="N5" s="7" t="s">
@@ -1475,20 +1494,20 @@
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>3</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
         <v>56.111</v>
       </c>
       <c r="N6" s="7" t="s">
@@ -1496,12 +1515,14 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1520,9 +1541,11 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1541,12 +1564,20 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -1564,12 +1595,24 @@
         <v>69.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="H10" s="6">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1577,7 +1620,18 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -158,9 +158,6 @@
     <t>indomain middle no_vit pre-train + conv bottom + 连续patch</t>
   </si>
   <si>
-    <t>测试</t>
-  </si>
-  <si>
     <t>indomain middle no_vit pre-train + conv bottom + 连续patch +c</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>同5， 但是 bottom改小，batch改大， patch 15</t>
+  </si>
+  <si>
+    <t>Vilt_convstem_multirange</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1296,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1573,9 +1573,7 @@
       <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
+      <c r="D9"/>
       <c r="F9" t="s">
         <v>27</v>
       </c>
@@ -1600,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="6">
         <v>9</v>
@@ -1615,22 +1613,57 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
     </row>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>Number</t>
   </si>
@@ -95,6 +95,9 @@
     <t>paper</t>
   </si>
   <si>
+    <t>Flick30K</t>
+  </si>
+  <si>
     <t>full pre-train batch 4320</t>
   </si>
   <si>
@@ -171,6 +174,15 @@
   </si>
   <si>
     <t>Vilt_convstem_multirange</t>
+  </si>
+  <si>
+    <t>last Flick30K</t>
+  </si>
+  <si>
+    <t>last NLVR2</t>
+  </si>
+  <si>
+    <t>last coco irtr</t>
   </si>
 </sst>
 </file>
@@ -336,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,126 +677,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,23 +806,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +842,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
@@ -1296,10 +1317,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1315,7 +1336,7 @@
     <col min="15" max="15" width="12.1696428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,6 +1381,9 @@
       </c>
       <c r="P1" t="s">
         <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1368,11 +1392,11 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2"/>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1381,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2">
         <v>69.57</v>
@@ -1402,10 +1426,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
@@ -1414,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5">
@@ -1436,10 +1460,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5">
         <v>3</v>
@@ -1448,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5">
@@ -1460,11 +1484,11 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5">
         <v>4</v>
@@ -1473,26 +1497,26 @@
         <v>3</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5">
         <v>55.898</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>36</v>
+      <c r="N5" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5">
         <v>5</v>
@@ -1501,37 +1525,37 @@
         <v>3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5">
         <v>56.111</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>39</v>
+      <c r="N6" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7">
         <v>57.376</v>
@@ -1542,22 +1566,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8">
         <v>51.9</v>
@@ -1568,14 +1592,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9"/>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -1584,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9">
         <v>69.6</v>
@@ -1598,16 +1622,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6">
         <v>9</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10">
         <v>57</v>
@@ -1618,7 +1642,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1627,10 +1651,10 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11">
         <v>58.8</v>
@@ -1638,13 +1662,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -1653,18 +1677,49 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10">
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10">
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420" activeTab="1"/>
+    <workbookView windowHeight="17020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>Number</t>
   </si>
@@ -95,7 +95,7 @@
     <t>paper</t>
   </si>
   <si>
-    <t>Flick30K</t>
+    <t>Flick30K (test)</t>
   </si>
   <si>
     <t>full pre-train batch 4320</t>
@@ -134,9 +134,6 @@
     <t>hw3</t>
   </si>
   <si>
-    <t>indomain middle no_vit pre-train 去掉最优传输loss</t>
-  </si>
-  <si>
     <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891</t>
   </si>
   <si>
@@ -173,16 +170,34 @@
     <t>同5， 但是 bottom改小，batch改大， patch 15</t>
   </si>
   <si>
+    <t>hw6</t>
+  </si>
+  <si>
     <t>Vilt_convstem_multirange</t>
   </si>
   <si>
-    <t>last Flick30K</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>last Flick30K （一天）</t>
+  </si>
+  <si>
+    <t>没infer</t>
+  </si>
+  <si>
+    <t>last NLVR2 （半天）</t>
+  </si>
+  <si>
+    <t>last coco irtr</t>
+  </si>
+  <si>
+    <t>hw5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last Flick30K </t>
   </si>
   <si>
     <t>last NLVR2</t>
-  </si>
-  <si>
-    <t>last coco irtr</t>
   </si>
 </sst>
 </file>
@@ -348,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +391,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,76 +686,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -755,7 +764,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,7 +773,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,27 +785,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,23 +815,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,9 +851,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
@@ -1317,10 +1323,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1328,15 +1334,15 @@
     <col min="1" max="1" width="9.19642857142857" customWidth="1"/>
     <col min="2" max="2" width="25.2946428571429" customWidth="1"/>
     <col min="3" max="3" width="61.2678571428571" customWidth="1"/>
-    <col min="4" max="4" width="11.7589285714286" customWidth="1"/>
-    <col min="7" max="7" width="9.14285714285714" style="1"/>
-    <col min="9" max="9" width="7.60714285714286" customWidth="1"/>
-    <col min="10" max="10" width="19.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="13.5267857142857" customWidth="1"/>
-    <col min="15" max="15" width="12.1696428571429" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="7.60714285714286" customWidth="1"/>
+    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="13.5267857142857" customWidth="1"/>
+    <col min="13" max="13" width="12.1696428571429" customWidth="1"/>
+    <col min="15" max="15" width="19.9107142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1347,46 +1353,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
       <c r="L1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1394,33 +1394,32 @@
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2"/>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
+      <c r="K2">
+        <v>69.57</v>
+      </c>
+      <c r="L2">
+        <v>70.69</v>
+      </c>
       <c r="M2">
-        <v>69.57</v>
+        <v>70.69</v>
       </c>
       <c r="N2">
-        <v>70.69</v>
-      </c>
-      <c r="O2">
-        <v>70.69</v>
-      </c>
-      <c r="P2">
         <v>70.85</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1428,33 +1427,33 @@
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5">
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
         <v>69.62</v>
       </c>
-      <c r="N3">
+      <c r="L3">
         <v>70.36</v>
       </c>
-      <c r="O3">
+      <c r="M3">
         <v>70.57</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1462,27 +1461,27 @@
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="5">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
         <v>69.593</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1490,242 +1489,332 @@
       <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="5">
+      <c r="F5" s="5">
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="G5" s="5">
         <v>3</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
         <v>55.898</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>56.111</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3</v>
-      </c>
-      <c r="J6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>56.111</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7">
+      <c r="K7">
         <v>57.376</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="H8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="M8">
+      <c r="K8">
         <v>51.9</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9"/>
-      <c r="F9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="H9">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="M9">
+      <c r="K9">
         <v>69.6</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="6">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6">
         <v>9</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M10">
+      <c r="K10">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
         <v>32</v>
       </c>
-      <c r="M11">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13">
+        <v>1.4062</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15">
+      <c r="F14" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14">
+        <v>0.74344</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="4">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9">
+      <c r="F16" s="4">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="8:10">
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="8:10">
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>55</v>
+    <row r="17" spans="6:8">
+      <c r="F17" s="4">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="4">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="4">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="4">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" s="4">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" s="4">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N6" r:id="rId1" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891"/>
-    <hyperlink ref="N5" r:id="rId2" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/acfe2e64-7445-45c6-bdc8-db3c8b3d6bdb"/>
+    <hyperlink ref="L6" r:id="rId1" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891"/>
+    <hyperlink ref="L5" r:id="rId2" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/acfe2e64-7445-45c6-bdc8-db3c8b3d6bdb"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -241,13 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -257,8 +250,99 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,96 +356,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -402,175 +402,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,37 +602,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +642,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -667,17 +671,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,124 +686,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,16 +812,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,9 +845,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1325,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1505,7 +1502,7 @@
       <c r="K5" s="5">
         <v>55.898</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1531,7 +1528,7 @@
       <c r="K6" s="5">
         <v>56.111</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1559,13 +1556,13 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
@@ -1620,13 +1617,13 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>9</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K10">
@@ -1747,14 +1744,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="4">
+    <row r="17" spans="6:11">
+      <c r="F17" s="3">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="K17">
+        <v>58.4</v>
+      </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="4">
@@ -1783,7 +1783,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>57</v>
@@ -1794,7 +1794,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>59</v>
@@ -1805,7 +1805,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>60</v>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>Number</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>last NLVR2</t>
+  </si>
+  <si>
+    <t>flick</t>
+  </si>
+  <si>
+    <t>nlvr</t>
+  </si>
+  <si>
+    <t>vqav2</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1329,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1811,6 +1820,44 @@
         <v>60</v>
       </c>
     </row>
+    <row r="23" spans="6:6">
+      <c r="F23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" s="4">
+        <v>23</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" s="4">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" s="4">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L6" r:id="rId1" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891"/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>Number</t>
   </si>
@@ -185,7 +185,13 @@
     <t>没infer</t>
   </si>
   <si>
+    <t>1.4062 [tensor(0.5904), tensor(0.8578), tensor(0.9200), tensor(0.8130), tensor(0.9490), tensor(0.9790)]</t>
+  </si>
+  <si>
     <t>last NLVR2 （半天）</t>
+  </si>
+  <si>
+    <t>0.74344(74.67(dev),75.32(test))</t>
   </si>
   <si>
     <t>last coco irtr</t>
@@ -1331,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1707,8 +1713,8 @@
       <c r="I13" t="s">
         <v>55</v>
       </c>
-      <c r="O13">
-        <v>1.4062</v>
+      <c r="O13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="6:15">
@@ -1719,13 +1725,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="O14">
-        <v>0.74344</v>
+      <c r="O14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="6:8">
@@ -1736,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="6:9">
@@ -1747,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -1758,7 +1764,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3"/>
       <c r="K17">
@@ -1773,18 +1779,18 @@
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>18</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>2</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>60</v>
+      <c r="H19" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -1795,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="6:8">
@@ -1806,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="6:8">
@@ -1817,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -1833,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="6:8">
@@ -1844,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="6:8">
@@ -1855,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>Number</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Vilt_convstem_multirange</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>last Flick30K （一天）</t>
@@ -1337,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1698,9 +1695,7 @@
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="F13" s="2">
         <v>12</v>
       </c>
@@ -1708,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
         <v>54</v>
       </c>
-      <c r="I13" t="s">
+      <c r="O13" t="s">
         <v>55</v>
-      </c>
-      <c r="O13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="6:15">
@@ -1725,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" t="s">
         <v>57</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="6:8">
@@ -1742,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="6:9">
@@ -1753,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -1764,7 +1759,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="3"/>
       <c r="K17">
@@ -1779,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="6:8">
@@ -1790,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -1801,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="6:8">
@@ -1812,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="6:8">
@@ -1823,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -1839,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="6:8">
@@ -1850,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="6:8">
@@ -1861,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>Number</t>
   </si>
@@ -194,22 +194,43 @@
     <t>last coco irtr</t>
   </si>
   <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/ac6365a2-a7d3-4f4b-9c43-822a34a7c2c6</t>
+  </si>
+  <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/aa31ec95-43e7-4e29-9578-5cf7dff111ec</t>
+  </si>
+  <si>
     <t>hw5</t>
   </si>
   <si>
     <t xml:space="preserve">last Flick30K </t>
   </si>
   <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/2561a6b3-0c38-450e-b4c2-d5e8a8d3e58d</t>
+  </si>
+  <si>
     <t>last NLVR2</t>
   </si>
   <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/326a7c5b-66c1-4c6a-8c4a-22858edc80c6</t>
+  </si>
+  <si>
     <t>flick</t>
   </si>
   <si>
+    <t>https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/ece6daa1-058a-4878-b22e-7147ea51e5d1</t>
+  </si>
+  <si>
     <t>nlvr</t>
   </si>
   <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/7fa2c769-9907-4b9c-b208-f2eceb519980</t>
+  </si>
+  <si>
     <t>vqav2</t>
+  </si>
+  <si>
+    <t>https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/34d0bd0c-4691-4bc4-8cc9-d79644d6d522</t>
   </si>
 </sst>
 </file>
@@ -1334,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1729,7 +1750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="6:12">
       <c r="F15" s="4">
         <v>14</v>
       </c>
@@ -1739,8 +1760,11 @@
       <c r="H15" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="6:9">
+      <c r="L15" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12">
       <c r="F16" s="4">
         <v>15</v>
       </c>
@@ -1752,6 +1776,9 @@
       </c>
       <c r="I16" t="s">
         <v>32</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="6:11">
@@ -1759,14 +1786,14 @@
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3"/>
       <c r="K17">
         <v>58.4</v>
       </c>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:12">
       <c r="F18" s="4">
         <v>17</v>
       </c>
@@ -1774,7 +1801,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="6:8">
@@ -1785,10 +1815,10 @@
         <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12">
       <c r="F20" s="4">
         <v>19</v>
       </c>
@@ -1798,27 +1828,30 @@
       <c r="H20" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="L20" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>20</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>60</v>
+      <c r="H21" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="6:8">
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>21</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>61</v>
+      <c r="H22" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -1826,7 +1859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:12">
       <c r="F24" s="4">
         <v>23</v>
       </c>
@@ -1834,10 +1867,13 @@
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8">
+        <v>66</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12">
       <c r="F25" s="4">
         <v>24</v>
       </c>
@@ -1845,10 +1881,13 @@
         <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8">
+        <v>68</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12">
       <c r="F26" s="4">
         <v>25</v>
       </c>
@@ -1856,13 +1895,23 @@
         <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L6" r:id="rId1" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891"/>
     <hyperlink ref="L5" r:id="rId2" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/acfe2e64-7445-45c6-bdc8-db3c8b3d6bdb"/>
+    <hyperlink ref="L24" r:id="rId3" display="https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/ece6daa1-058a-4878-b22e-7147ea51e5d1"/>
+    <hyperlink ref="L25" r:id="rId4" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/7fa2c769-9907-4b9c-b208-f2eceb519980"/>
+    <hyperlink ref="L26" r:id="rId5" display="https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/34d0bd0c-4691-4bc4-8cc9-d79644d6d522"/>
+    <hyperlink ref="L16" r:id="rId6" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/aa31ec95-43e7-4e29-9578-5cf7dff111ec"/>
+    <hyperlink ref="L20" r:id="rId7" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/326a7c5b-66c1-4c6a-8c4a-22858edc80c6"/>
+    <hyperlink ref="L15" r:id="rId8" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/ac6365a2-a7d3-4f4b-9c43-822a34a7c2c6"/>
+    <hyperlink ref="L18" r:id="rId9" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/2561a6b3-0c38-450e-b4c2-d5e8a8d3e58d"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>Number</t>
   </si>
@@ -98,6 +98,15 @@
     <t>Flick30K (test)</t>
   </si>
   <si>
+    <t>NLVR</t>
+  </si>
+  <si>
+    <t>Pre_link</t>
+  </si>
+  <si>
+    <t>FT_link</t>
+  </si>
+  <si>
     <t>full pre-train batch 4320</t>
   </si>
   <si>
@@ -179,40 +188,49 @@
     <t>last Flick30K （一天）</t>
   </si>
   <si>
+    <t>1.4062 [tensor(0.5904), tensor(0.8578), tensor(0.9200), tensor(0.8130), tensor(0.9490), tensor(0.9790)]</t>
+  </si>
+  <si>
+    <t>last NLVR2 （半天）</t>
+  </si>
+  <si>
+    <t>0.74344(74.67(dev),75.32(test))</t>
+  </si>
+  <si>
+    <t>last coco irtr</t>
+  </si>
+  <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/ac6365a2-a7d3-4f4b-9c43-822a34a7c2c6</t>
+  </si>
+  <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/aa31ec95-43e7-4e29-9578-5cf7dff111ec</t>
+  </si>
+  <si>
+    <t>hw5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last Flick30K </t>
+  </si>
+  <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/2561a6b3-0c38-450e-b4c2-d5e8a8d3e58d</t>
+  </si>
+  <si>
+    <t>last NLVR2</t>
+  </si>
+  <si>
+    <t>（73.92（dev), 75.50)</t>
+  </si>
+  <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/326a7c5b-66c1-4c6a-8c4a-22858edc80c6</t>
+  </si>
+  <si>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/b53a2af8-4f3a-4c4b-942a-4f01bc618871</t>
+  </si>
+  <si>
     <t>没infer</t>
   </si>
   <si>
-    <t>1.4062 [tensor(0.5904), tensor(0.8578), tensor(0.9200), tensor(0.8130), tensor(0.9490), tensor(0.9790)]</t>
-  </si>
-  <si>
-    <t>last NLVR2 （半天）</t>
-  </si>
-  <si>
-    <t>0.74344(74.67(dev),75.32(test))</t>
-  </si>
-  <si>
-    <t>last coco irtr</t>
-  </si>
-  <si>
-    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/ac6365a2-a7d3-4f4b-9c43-822a34a7c2c6</t>
-  </si>
-  <si>
-    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/aa31ec95-43e7-4e29-9578-5cf7dff111ec</t>
-  </si>
-  <si>
-    <t>hw5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last Flick30K </t>
-  </si>
-  <si>
-    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/2561a6b3-0c38-450e-b4c2-d5e8a8d3e58d</t>
-  </si>
-  <si>
-    <t>last NLVR2</t>
-  </si>
-  <si>
-    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/326a7c5b-66c1-4c6a-8c4a-22858edc80c6</t>
+    <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/8d486548-dd84-48b0-b872-6df7d745b19d</t>
   </si>
   <si>
     <t>flick</t>
@@ -255,6 +273,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,14 +328,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,124 +743,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,26 +869,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,7 +907,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1353,10 +1383,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:H22"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1372,7 +1404,7 @@
     <col min="15" max="15" width="19.9107142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1414,6 +1446,15 @@
       </c>
       <c r="O1" t="s">
         <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1422,10 +1463,10 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1434,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <v>69.57</v>
@@ -1455,10 +1496,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
@@ -1467,10 +1508,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5">
@@ -1489,10 +1530,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -1501,23 +1542,23 @@
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5">
         <v>69.593</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5">
         <v>4</v>
@@ -1526,22 +1567,23 @@
         <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5">
         <v>55.898</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="7"/>
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1552,37 +1594,38 @@
         <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5">
         <v>56.111</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>39</v>
+      <c r="L6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7">
         <v>57.376</v>
@@ -1593,22 +1636,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>51.9</v>
@@ -1619,13 +1662,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1634,10 +1677,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>69.6</v>
@@ -1648,16 +1691,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5">
         <v>9</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>57</v>
@@ -1668,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1677,10 +1720,10 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
         <v>58.8</v>
@@ -1688,13 +1731,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1703,18 +1746,18 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3"/>
       <c r="F13" s="2">
@@ -1724,16 +1767,14 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I13"/>
       <c r="O13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16">
       <c r="F14" s="2">
         <v>13</v>
       </c>
@@ -1741,16 +1782,14 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="6:12">
+        <v>58</v>
+      </c>
+      <c r="I14"/>
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="6:19">
       <c r="F15" s="4">
         <v>14</v>
       </c>
@@ -1758,13 +1797,14 @@
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="6:12">
+        <v>60</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="6:19">
       <c r="F16" s="4">
         <v>15</v>
       </c>
@@ -1772,13 +1812,14 @@
         <v>2</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="S16" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="6:11">
@@ -1786,14 +1827,14 @@
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3"/>
       <c r="K17">
         <v>58.4</v>
       </c>
     </row>
-    <row r="18" spans="6:12">
+    <row r="18" spans="6:19">
       <c r="F18" s="4">
         <v>17</v>
       </c>
@@ -1801,13 +1842,14 @@
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8">
+        <v>64</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="S18" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16">
       <c r="F19" s="2">
         <v>18</v>
       </c>
@@ -1815,10 +1857,13 @@
         <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="6:12">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19">
       <c r="F20" s="4">
         <v>19</v>
       </c>
@@ -1826,32 +1871,42 @@
         <v>5</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="2">
+        <v>60</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="S20" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19">
+      <c r="F21" s="6">
         <v>20</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="6">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="F22" s="2">
+      <c r="H21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19">
+      <c r="F22" s="3">
         <v>21</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>64</v>
+      <c r="H22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -1859,7 +1914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="6:12">
+    <row r="24" spans="6:19">
       <c r="F24" s="4">
         <v>23</v>
       </c>
@@ -1867,13 +1922,14 @@
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="6:12">
+        <v>72</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="S24" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19">
       <c r="F25" s="4">
         <v>24</v>
       </c>
@@ -1881,13 +1937,14 @@
         <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="6:12">
+        <v>74</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="S25" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19">
       <c r="F26" s="4">
         <v>25</v>
       </c>
@@ -1895,23 +1952,25 @@
         <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="S26" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L6" r:id="rId1" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891"/>
-    <hyperlink ref="L5" r:id="rId2" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/acfe2e64-7445-45c6-bdc8-db3c8b3d6bdb"/>
-    <hyperlink ref="L24" r:id="rId3" display="https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/ece6daa1-058a-4878-b22e-7147ea51e5d1"/>
-    <hyperlink ref="L25" r:id="rId4" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/7fa2c769-9907-4b9c-b208-f2eceb519980"/>
-    <hyperlink ref="L26" r:id="rId5" display="https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/34d0bd0c-4691-4bc4-8cc9-d79644d6d522"/>
-    <hyperlink ref="L16" r:id="rId6" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/aa31ec95-43e7-4e29-9578-5cf7dff111ec"/>
-    <hyperlink ref="L20" r:id="rId7" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/326a7c5b-66c1-4c6a-8c4a-22858edc80c6"/>
-    <hyperlink ref="L15" r:id="rId8" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/ac6365a2-a7d3-4f4b-9c43-822a34a7c2c6"/>
-    <hyperlink ref="L18" r:id="rId9" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/2561a6b3-0c38-450e-b4c2-d5e8a8d3e58d"/>
+    <hyperlink ref="S6" r:id="rId1" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/4ca5a271-ace4-4ffb-9e28-40f862ae0891"/>
+    <hyperlink ref="S15" r:id="rId2" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/ac6365a2-a7d3-4f4b-9c43-822a34a7c2c6"/>
+    <hyperlink ref="S16" r:id="rId3" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/aa31ec95-43e7-4e29-9578-5cf7dff111ec"/>
+    <hyperlink ref="S18" r:id="rId4" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/2561a6b3-0c38-450e-b4c2-d5e8a8d3e58d"/>
+    <hyperlink ref="S20" r:id="rId5" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/326a7c5b-66c1-4c6a-8c4a-22858edc80c6"/>
+    <hyperlink ref="S24" r:id="rId6" display="https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/ece6daa1-058a-4878-b22e-7147ea51e5d1"/>
+    <hyperlink ref="S25" r:id="rId7" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/7fa2c769-9907-4b9c-b208-f2eceb519980"/>
+    <hyperlink ref="S26" r:id="rId8" display="https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/34d0bd0c-4691-4bc4-8cc9-d79644d6d522"/>
+    <hyperlink ref="S22" r:id="rId9" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/8d486548-dd84-48b0-b872-6df7d745b19d"/>
+    <hyperlink ref="S21" r:id="rId10" display="https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/b53a2af8-4f3a-4c4b-942a-4f01bc618871"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/records.xlsx
+++ b/records.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ViLT" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>Number</t>
   </si>
@@ -227,7 +228,7 @@
     <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/b53a2af8-4f3a-4c4b-942a-4f01bc618871</t>
   </si>
   <si>
-    <t>没infer</t>
+    <t>(50.85, 51.07)</t>
   </si>
   <si>
     <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/8d486548-dd84-48b0-b872-6df7d745b19d</t>
@@ -236,12 +237,18 @@
     <t>flick</t>
   </si>
   <si>
+    <t>tensor(0.2532), tensor(0.5046), tensor(0.6256), tensor(0.3770), tensor(0.6410), tensor(0.7280)</t>
+  </si>
+  <si>
     <t>https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/ece6daa1-058a-4878-b22e-7147ea51e5d1</t>
   </si>
   <si>
     <t>nlvr</t>
   </si>
   <si>
+    <t>（50.85， 51,07)</t>
+  </si>
+  <si>
     <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/7fa2c769-9907-4b9c-b208-f2eceb519980</t>
   </si>
   <si>
@@ -249,6 +256,66 @@
   </si>
   <si>
     <t>https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/34d0bd0c-4691-4bc4-8cc9-d79644d6d522</t>
+  </si>
+  <si>
+    <t>Numbert</t>
+  </si>
+  <si>
+    <t>EXp</t>
+  </si>
+  <si>
+    <t>VQAv2.0</t>
+  </si>
+  <si>
+    <t>NLVR2</t>
+  </si>
+  <si>
+    <t>Flick30K</t>
+  </si>
+  <si>
+    <t>MSCOCO</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Text Retreval</t>
+  </si>
+  <si>
+    <t>Image Retrival</t>
+  </si>
+  <si>
+    <t>test-dev</t>
+  </si>
+  <si>
+    <t>R@1</t>
+  </si>
+  <si>
+    <t>R@5</t>
+  </si>
+  <si>
+    <t>R@10</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>复现paper</t>
+  </si>
+  <si>
+    <t>hidden 768 + pre-train + 去掉outdomain</t>
+  </si>
+  <si>
+    <t>hidden 512 + 去掉outdomain + convstem</t>
+  </si>
+  <si>
+    <t>hidden 512 + 去掉outdomain + convstem + 连续patch</t>
+  </si>
+  <si>
+    <t>hidden 512 + 去掉outdomain + multi range</t>
   </si>
 </sst>
 </file>
@@ -888,10 +955,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -908,9 +984,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
@@ -1385,10 +1458,10 @@
   <sheetPr/>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1396,7 +1469,7 @@
     <col min="1" max="1" width="9.19642857142857" customWidth="1"/>
     <col min="2" max="2" width="25.2946428571429" customWidth="1"/>
     <col min="3" max="3" width="61.2678571428571" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="4"/>
     <col min="7" max="7" width="7.60714285714286" customWidth="1"/>
     <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
     <col min="12" max="12" width="13.5267857142857" customWidth="1"/>
@@ -1458,11 +1531,11 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
@@ -1491,30 +1564,30 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
         <v>69.62</v>
       </c>
       <c r="L3">
@@ -1525,97 +1598,97 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
         <v>69.593</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
         <v>55.898</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="3"/>
       <c r="S5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="5">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
         <v>56.111</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="S6" s="7" t="s">
+      <c r="L6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F7">
@@ -1632,13 +1705,13 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D8" t="s">
@@ -1658,13 +1731,13 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D9" t="s">
@@ -1693,13 +1766,13 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="8">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K10">
@@ -1730,13 +1803,13 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F12">
@@ -1753,20 +1826,20 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="F13" s="2">
+      <c r="C13" s="6"/>
+      <c r="F13" s="5">
         <v>12</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I13"/>
@@ -1775,13 +1848,13 @@
       </c>
     </row>
     <row r="14" spans="6:16">
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>13</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>58</v>
       </c>
       <c r="I14"/>
@@ -1790,73 +1863,73 @@
       </c>
     </row>
     <row r="15" spans="6:19">
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>14</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="S15" s="7" t="s">
+      <c r="L15" s="3"/>
+      <c r="S15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="6:19">
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>15</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="S16" s="7" t="s">
+      <c r="L16" s="3"/>
+      <c r="S16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="6:11">
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="6"/>
       <c r="K17">
         <v>58.4</v>
       </c>
     </row>
     <row r="18" spans="6:19">
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>17</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="S18" s="7" t="s">
+      <c r="L18" s="3"/>
+      <c r="S18" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="6:16">
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>18</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="P19" t="s">
@@ -1864,48 +1937,49 @@
       </c>
     </row>
     <row r="20" spans="6:19">
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>19</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="7">
         <v>5</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="S20" s="7" t="s">
+      <c r="L20" s="3"/>
+      <c r="S20" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="6:19">
-      <c r="F21" s="6">
+      <c r="F21" s="9">
         <v>20</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="9">
         <v>5</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="6:19">
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <v>21</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="6">
         <v>5</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22"/>
+      <c r="P22" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1915,48 +1989,57 @@
       </c>
     </row>
     <row r="24" spans="6:19">
-      <c r="F24" s="4">
+      <c r="F24" s="6">
         <v>23</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="6">
         <v>4</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="S24" s="7" t="s">
+      <c r="L24" s="3"/>
+      <c r="O24" t="s">
         <v>73</v>
       </c>
+      <c r="S24" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="6:19">
-      <c r="F25" s="4">
+      <c r="F25" s="6">
         <v>24</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="6">
         <v>4</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="S25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="L25" s="3"/>
+      <c r="P25" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="6:19">
-      <c r="F26" s="4">
+      <c r="F26" s="6">
         <v>25</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="6">
         <v>4</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="S26" s="7" t="s">
-        <v>77</v>
+      <c r="H26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26">
+        <v>58.714</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="S26" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1975,4 +2058,330 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="2" max="2" width="49.5089285714286" customWidth="1"/>
+    <col min="4" max="5" width="12.5803571428571" customWidth="1"/>
+    <col min="6" max="6" width="12.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4">
+        <v>70.85</v>
+      </c>
+      <c r="E4">
+        <v>74.91</v>
+      </c>
+      <c r="F4">
+        <v>75.57</v>
+      </c>
+      <c r="G4">
+        <v>83.7</v>
+      </c>
+      <c r="H4">
+        <v>97.2</v>
+      </c>
+      <c r="I4">
+        <v>98.1</v>
+      </c>
+      <c r="J4">
+        <v>62.2</v>
+      </c>
+      <c r="K4">
+        <v>87.6</v>
+      </c>
+      <c r="L4">
+        <v>93.2</v>
+      </c>
+      <c r="M4">
+        <v>62.9</v>
+      </c>
+      <c r="N4">
+        <v>87.1</v>
+      </c>
+      <c r="O4">
+        <v>92.7</v>
+      </c>
+      <c r="P4">
+        <v>42.6</v>
+      </c>
+      <c r="Q4">
+        <v>72.8</v>
+      </c>
+      <c r="R4">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>69.6</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>74.69</v>
+      </c>
+      <c r="F5">
+        <v>75.32</v>
+      </c>
+      <c r="G5">
+        <v>81.3</v>
+      </c>
+      <c r="H5">
+        <v>94.9</v>
+      </c>
+      <c r="I5">
+        <v>97.9</v>
+      </c>
+      <c r="J5">
+        <v>59.04</v>
+      </c>
+      <c r="K5">
+        <v>85.8</v>
+      </c>
+      <c r="L5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>69.62</v>
+      </c>
+      <c r="D6">
+        <v>70.69</v>
+      </c>
+      <c r="E6">
+        <v>73.92</v>
+      </c>
+      <c r="F6">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>58.71</v>
+      </c>
+      <c r="E7">
+        <v>50.85</v>
+      </c>
+      <c r="F7">
+        <v>51.07</v>
+      </c>
+      <c r="G7">
+        <v>37.7</v>
+      </c>
+      <c r="H7">
+        <v>64.1</v>
+      </c>
+      <c r="I7">
+        <v>72.8</v>
+      </c>
+      <c r="J7">
+        <v>25.32</v>
+      </c>
+      <c r="K7">
+        <v>50.46</v>
+      </c>
+      <c r="L7">
+        <v>62.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C1:D2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="R@1"/>
+    <hyperlink ref="H3" r:id="rId2" display="R@5" tooltip="mailto:R@5"/>
+    <hyperlink ref="I3" r:id="rId3" display="R@10" tooltip="mailto:R@10"/>
+    <hyperlink ref="J3" r:id="rId1" display="R@1"/>
+    <hyperlink ref="K3" r:id="rId2" display="R@5" tooltip="mailto:R@5"/>
+    <hyperlink ref="L3" r:id="rId3" display="R@10" tooltip="mailto:R@10"/>
+    <hyperlink ref="M3" r:id="rId1" display="R@1"/>
+    <hyperlink ref="N3" r:id="rId2" display="R@5" tooltip="mailto:R@5"/>
+    <hyperlink ref="O3" r:id="rId3" display="R@10" tooltip="mailto:R@10"/>
+    <hyperlink ref="P3" r:id="rId1" display="R@1"/>
+    <hyperlink ref="Q3" r:id="rId2" display="R@5" tooltip="mailto:R@5"/>
+    <hyperlink ref="R3" r:id="rId3" display="R@10" tooltip="mailto:R@10"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/records.xlsx
+++ b/records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>Number</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t xml:space="preserve">last Flick30K </t>
+  </si>
+  <si>
+    <t>tensor(0.5702), tensor(0.8402), tensor(0.9048), tensor(0.7610), tensor(0.9460), tensor(0.9800)</t>
   </si>
   <si>
     <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/2561a6b3-0c38-450e-b4c2-d5e8a8d3e58d</t>
@@ -328,7 +331,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +346,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -810,124 +819,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,26 +945,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,6 +977,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -986,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,10 +1470,10 @@
   <sheetPr/>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1469,7 +1481,7 @@
     <col min="1" max="1" width="9.19642857142857" customWidth="1"/>
     <col min="2" max="2" width="25.2946428571429" customWidth="1"/>
     <col min="3" max="3" width="61.2678571428571" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="4"/>
+    <col min="5" max="5" width="9.14285714285714" style="5"/>
     <col min="7" max="7" width="7.60714285714286" customWidth="1"/>
     <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
     <col min="12" max="12" width="13.5267857142857" customWidth="1"/>
@@ -1531,11 +1543,11 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
@@ -1564,30 +1576,30 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
         <v>69.62</v>
       </c>
       <c r="L3">
@@ -1598,55 +1610,55 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
         <v>69.593</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
         <v>55.898</v>
       </c>
       <c r="L5" s="3"/>
@@ -1655,25 +1667,25 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="F6" s="8">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="F6" s="9">
         <v>5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
         <v>56.111</v>
       </c>
       <c r="L6" s="3"/>
@@ -1682,13 +1694,13 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F7">
@@ -1705,13 +1717,13 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D8" t="s">
@@ -1731,13 +1743,13 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D9" t="s">
@@ -1766,13 +1778,13 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>9</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>34</v>
       </c>
       <c r="K10">
@@ -1803,13 +1815,13 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F12">
@@ -1826,20 +1838,20 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="F13" s="5">
+      <c r="C13" s="7"/>
+      <c r="F13" s="6">
         <v>12</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>56</v>
       </c>
       <c r="I13"/>
@@ -1848,13 +1860,13 @@
       </c>
     </row>
     <row r="14" spans="6:16">
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>13</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I14"/>
@@ -1863,13 +1875,13 @@
       </c>
     </row>
     <row r="15" spans="6:19">
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>14</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>60</v>
       </c>
       <c r="L15" s="3"/>
@@ -1878,13 +1890,13 @@
       </c>
     </row>
     <row r="16" spans="6:19">
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>15</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>2</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I16" t="s">
@@ -1896,13 +1908,13 @@
       </c>
     </row>
     <row r="17" spans="6:11">
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>16</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="7"/>
       <c r="K17">
         <v>58.4</v>
       </c>
@@ -1918,69 +1930,73 @@
         <v>64</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="S18" s="3" t="s">
+      <c r="O18" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="P18"/>
+      <c r="S18" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="6:16">
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>18</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <v>2</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>66</v>
+      <c r="H19" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="P19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="6:19">
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>19</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>5</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>60</v>
       </c>
       <c r="L20" s="3"/>
       <c r="S20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="6:19">
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>20</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>5</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="10" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="6:19">
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>21</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <v>5</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>66</v>
+      <c r="H22" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="I22"/>
       <c r="P22" t="s">
-        <v>70</v>
-      </c>
-      <c r="S22" s="10" t="s">
         <v>71</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -1989,57 +2005,57 @@
       </c>
     </row>
     <row r="24" spans="6:19">
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>23</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>4</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>72</v>
+      <c r="H24" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="L24" s="3"/>
       <c r="O24" t="s">
-        <v>73</v>
-      </c>
-      <c r="S24" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="S24" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" spans="6:19">
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <v>4</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>75</v>
+      <c r="H25" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="L25" s="3"/>
       <c r="P25" t="s">
-        <v>76</v>
-      </c>
-      <c r="S25" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="S25" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="6:19">
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <v>25</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <v>4</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>78</v>
+      <c r="H26" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="K26">
         <v>58.714</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="S26" s="10" t="s">
-        <v>79</v>
+      <c r="S26" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2063,10 +2079,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2078,21 +2094,21 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2100,7 +2116,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2114,28 +2130,28 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2147,45 +2163,45 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2193,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4"/>
       <c r="D4">
@@ -2247,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>69.6</v>
@@ -2278,12 +2294,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>69.62</v>
@@ -2296,6 +2312,24 @@
       </c>
       <c r="F6">
         <v>75.5</v>
+      </c>
+      <c r="G6">
+        <v>76.1</v>
+      </c>
+      <c r="H6">
+        <v>94.6</v>
+      </c>
+      <c r="I6">
+        <v>98</v>
+      </c>
+      <c r="J6">
+        <v>57.02</v>
+      </c>
+      <c r="K6">
+        <v>84.02</v>
+      </c>
+      <c r="L6">
+        <v>90.48</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2303,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>58.71</v>
@@ -2333,15 +2367,21 @@
         <v>62.56</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>58.8</v>
+      </c>
+      <c r="E8">
+        <v>50.85</v>
+      </c>
+      <c r="F8">
+        <v>51.07</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2349,8 +2389,11 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/records.xlsx
+++ b/records.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>Number</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/326a7c5b-66c1-4c6a-8c4a-22858edc80c6</t>
+  </si>
+  <si>
+    <t>(tensor(0.2510), tensor(0.5160), tensor(0.6282), tensor(0.3790), tensor(0.6330), tensor(0.7340)</t>
   </si>
   <si>
     <t>https://ml.azure.com/job/resrchvc/lab-rr1-v100-32gb-4/b53a2af8-4f3a-4c4b-942a-4f01bc618871</t>
@@ -490,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,12 +521,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,152 +816,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,9 +990,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
@@ -1470,10 +1464,10 @@
   <sheetPr/>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1934,7 +1928,7 @@
         <v>65</v>
       </c>
       <c r="P18"/>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1968,17 +1962,20 @@
       </c>
     </row>
     <row r="21" spans="6:19">
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>20</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="7">
         <v>5</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="O21" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="6:19">
@@ -1993,10 +1990,10 @@
       </c>
       <c r="I22"/>
       <c r="P22" t="s">
-        <v>71</v>
-      </c>
-      <c r="S22" s="11" t="s">
         <v>72</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -2012,14 +2009,14 @@
         <v>4</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L24" s="3"/>
       <c r="O24" t="s">
-        <v>74</v>
-      </c>
-      <c r="S24" s="11" t="s">
         <v>75</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="6:19">
@@ -2030,14 +2027,14 @@
         <v>4</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L25" s="3"/>
       <c r="P25" t="s">
-        <v>77</v>
-      </c>
-      <c r="S25" s="11" t="s">
         <v>78</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="6:19">
@@ -2048,14 +2045,14 @@
         <v>4</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K26">
         <v>58.714</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="S26" s="11" t="s">
-        <v>80</v>
+      <c r="S26" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2079,36 +2076,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="2" max="2" width="49.5089285714286" customWidth="1"/>
-    <col min="4" max="5" width="12.5803571428571" customWidth="1"/>
+    <col min="3" max="3" width="13.5267857142857" customWidth="1"/>
+    <col min="4" max="4" width="8.79464285714286" customWidth="1"/>
+    <col min="5" max="5" width="12.5803571428571" customWidth="1"/>
     <col min="6" max="6" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2116,7 +2115,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2130,28 +2129,28 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2163,45 +2162,45 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2209,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4"/>
       <c r="D4">
@@ -2263,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>69.6</v>
@@ -2299,7 +2298,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>69.62</v>
@@ -2337,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>58.71</v>
@@ -2367,12 +2366,12 @@
         <v>62.56</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>58.8</v>
@@ -2382,6 +2381,24 @@
       </c>
       <c r="F8">
         <v>51.07</v>
+      </c>
+      <c r="G8">
+        <v>37.9</v>
+      </c>
+      <c r="H8">
+        <v>63.3</v>
+      </c>
+      <c r="I8">
+        <v>73.4</v>
+      </c>
+      <c r="J8">
+        <v>25.1</v>
+      </c>
+      <c r="K8">
+        <v>51.6</v>
+      </c>
+      <c r="L8">
+        <v>62.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2389,11 +2406,14 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="7:7">
       <c r="G10" s="4"/>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/records.xlsx
+++ b/records.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>Number</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>https://ml.azure.com/job/resrchvc/az-wus2-v100-32gb-6/34d0bd0c-4691-4bc4-8cc9-d79644d6d522</t>
+  </si>
+  <si>
+    <t>nlvr2</t>
+  </si>
+  <si>
+    <t>flick30</t>
   </si>
   <si>
     <t>Numbert</t>
@@ -1462,12 +1468,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2053,6 +2059,39 @@
       <c r="L26" s="3"/>
       <c r="S26" s="10" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2118,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2093,21 +2132,21 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2115,7 +2154,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2129,28 +2168,28 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2162,45 +2201,45 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2208,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4"/>
       <c r="D4">
@@ -2262,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>69.6</v>
@@ -2298,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>69.62</v>
@@ -2336,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>58.71</v>
@@ -2371,7 +2410,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>58.8</v>
@@ -2401,12 +2440,15 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C9">
+        <v>51.09</v>
       </c>
     </row>
     <row r="10" spans="7:7">
